--- a/Wangjianlong.Web/Excels/Fitment.xlsx
+++ b/Wangjianlong.Web/Excels/Fitment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>户名</t>
   </si>
@@ -31,10 +31,16 @@
     <t>项目</t>
   </si>
   <si>
-    <t>单价</t>
+    <t>单价【元】</t>
   </si>
   <si>
     <t>数量</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>成新</t>
   </si>
   <si>
     <r>
@@ -82,9 +88,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -119,28 +125,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,9 +162,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,25 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +223,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -208,9 +246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,38 +258,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,25 +275,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,37 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,115 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,6 +522,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -534,18 +575,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,36 +585,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,11 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,28 +626,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,115 +656,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,18 +1123,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,9 +1145,11 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1148,9 +1157,11 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1166,35 +1177,45 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:6">
+    <row r="4" ht="14.25" spans="1:8">
       <c r="A4" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4:F4" name="区域1" securityDescriptor=""/>
+    <protectedRange sqref="A4:H4" name="区域1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="2">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Wangjianlong.Web/Excels/Fitment.xlsx
+++ b/Wangjianlong.Web/Excels/Fitment.xlsx
@@ -43,38 +43,7 @@
     <t>成新</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>补偿价值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>补偿价值(元)</t>
   </si>
   <si>
     <t>位置</t>
@@ -88,12 +57,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,19 +71,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="黑体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="黑体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -125,7 +139,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,22 +154,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,89 +200,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -255,15 +215,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -275,31 +237,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,151 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,6 +483,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -536,59 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -604,17 +572,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,16 +600,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,126 +618,126 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -784,29 +746,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -861,6 +814,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1116,26 +1074,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A1" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1106,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="14.25" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1161,11 +1118,11 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1183,31 +1140,41 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:8">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+    <row r="5" ht="14.25" spans="1:8">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:8">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
   </sheetData>
   <protectedRanges>
